--- a/src/main/webapp/template/import_hourse_temp.xlsx
+++ b/src/main/webapp/template/import_hourse_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="20385" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="hourse_info" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>用户id</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>经纪人姓名</t>
-  </si>
-  <si>
-    <t>占比面积（平方）</t>
-  </si>
-  <si>
-    <t>价格（平方）</t>
   </si>
   <si>
     <t>家具</t>
@@ -150,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,11 +158,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,22 +202,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,16 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,30 +257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -280,15 +267,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,13 +297,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,37 +311,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,145 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,15 +502,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,15 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -563,6 +539,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -583,17 +583,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,10 +610,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +622,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,12 +1105,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1134,15 +1128,13 @@
     <col min="13" max="13" width="8.875" customWidth="1"/>
     <col min="14" max="14" width="12.875" customWidth="1"/>
     <col min="15" max="15" width="16.25" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="33.75" customWidth="1"/>
-    <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="10.875" customWidth="1"/>
-    <col min="21" max="22" width="5.125" customWidth="1"/>
+    <col min="16" max="16" width="33.75" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="10.875" customWidth="1"/>
+    <col min="19" max="20" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1203,31 +1195,25 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1242,25 +1228,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
         <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
       </c>
       <c r="N2" s="1">
         <v>15900000000</v>
       </c>
       <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
         <v>30</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
       </c>
       <c r="R2" t="s">
         <v>31</v>
@@ -1268,34 +1254,28 @@
       <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2">
+      <c r="T2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1310,39 +1290,33 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1">
         <v>13656669901</v>
       </c>
       <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
         <v>39</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
       <c r="R3" t="s">
         <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3">
+        <v>32</v>
+      </c>
+      <c r="T3">
         <v>5</v>
       </c>
     </row>
